--- a/TestDataXls/tutor_add_class_501.xlsx
+++ b/TestDataXls/tutor_add_class_501.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0963F2-0489-445A-8D12-D8EE9BEC7A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="add_class" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="338">
   <si>
     <t>password</t>
   </si>
@@ -1018,12 +1020,33 @@
   </si>
   <si>
     <t>drive</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>students</t>
+  </si>
+  <si>
+    <t>tot_num_session</t>
+  </si>
+  <si>
+    <t>teaching_class</t>
+  </si>
+  <si>
+    <t>stud_enrolled</t>
+  </si>
+  <si>
+    <t>seats_left</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1241,6 +1264,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1276,6 +1316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1451,52 +1508,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="5" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="12" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" customWidth="1"/>
-    <col min="26" max="26" width="12.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" customWidth="1"/>
+    <col min="26" max="26" width="12.33203125" style="2" customWidth="1"/>
     <col min="27" max="27" width="17" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10.85546875" customWidth="1"/>
-    <col min="30" max="30" width="42.42578125" customWidth="1"/>
-    <col min="31" max="31" width="11.85546875" customWidth="1"/>
-    <col min="32" max="34" width="11.85546875" style="5" customWidth="1"/>
-    <col min="35" max="36" width="5.28515625" customWidth="1"/>
-    <col min="37" max="37" width="5.28515625" style="5" customWidth="1"/>
-    <col min="38" max="38" width="16.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10.5546875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.88671875" customWidth="1"/>
+    <col min="30" max="30" width="42.44140625" customWidth="1"/>
+    <col min="31" max="31" width="11.88671875" customWidth="1"/>
+    <col min="32" max="34" width="11.88671875" style="5" customWidth="1"/>
+    <col min="35" max="36" width="5.33203125" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" style="5" customWidth="1"/>
+    <col min="38" max="38" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1617,8 +1674,26 @@
       <c r="AN1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AO1" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1729,7 +1804,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -1751,12 +1826,12 @@
       <c r="AM3" s="5"/>
       <c r="AN3" s="2"/>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -1868,7 +1943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1984,7 +2059,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2103,7 +2178,7 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
     </row>
-    <row r="7" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -2219,7 +2294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -2335,7 +2410,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -2457,7 +2532,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -2579,12 +2654,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -2701,12 +2776,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -2823,12 +2898,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -2945,12 +3020,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
@@ -3067,7 +3142,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -3096,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
@@ -3189,12 +3264,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
@@ -3311,12 +3386,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="17" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
@@ -3433,12 +3508,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
@@ -3555,12 +3630,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
@@ -3677,12 +3752,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
@@ -3799,12 +3874,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
@@ -3921,12 +3996,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
@@ -4043,7 +4118,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -4165,23 +4240,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
@@ -4219,7 +4294,7 @@
       <c r="AR40" s="5"/>
       <c r="AS40" s="5"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
@@ -4257,7 +4332,7 @@
       <c r="AR41" s="5"/>
       <c r="AS41" s="5"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
@@ -4295,7 +4370,7 @@
       <c r="AR42" s="5"/>
       <c r="AS42" s="5"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
@@ -4333,7 +4408,7 @@
       <c r="AR43" s="5"/>
       <c r="AS43" s="5"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
@@ -4371,7 +4446,7 @@
       <c r="AR44" s="5"/>
       <c r="AS44" s="5"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
@@ -4409,7 +4484,7 @@
       <c r="AR45" s="5"/>
       <c r="AS45" s="5"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
@@ -4447,7 +4522,7 @@
       <c r="AR46" s="5"/>
       <c r="AS46" s="5"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
@@ -4485,7 +4560,7 @@
       <c r="AR47" s="5"/>
       <c r="AS47" s="5"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
@@ -4523,7 +4598,7 @@
       <c r="AR48" s="5"/>
       <c r="AS48" s="5"/>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
@@ -4561,7 +4636,7 @@
       <c r="AR49" s="5"/>
       <c r="AS49" s="5"/>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
@@ -4599,7 +4674,7 @@
       <c r="AR50" s="5"/>
       <c r="AS50" s="5"/>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
@@ -4637,7 +4712,7 @@
       <c r="AR51" s="5"/>
       <c r="AS51" s="5"/>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
@@ -4675,7 +4750,7 @@
       <c r="AR52" s="5"/>
       <c r="AS52" s="5"/>
     </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
@@ -4713,7 +4788,7 @@
       <c r="AR53" s="5"/>
       <c r="AS53" s="5"/>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
@@ -4751,7 +4826,7 @@
       <c r="AR54" s="5"/>
       <c r="AS54" s="5"/>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
@@ -4789,7 +4864,7 @@
       <c r="AR55" s="5"/>
       <c r="AS55" s="5"/>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
@@ -4827,7 +4902,7 @@
       <c r="AR56" s="5"/>
       <c r="AS56" s="5"/>
     </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
@@ -4865,7 +4940,7 @@
       <c r="AR57" s="5"/>
       <c r="AS57" s="5"/>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
@@ -4903,7 +4978,7 @@
       <c r="AR58" s="5"/>
       <c r="AS58" s="5"/>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
@@ -4941,7 +5016,7 @@
       <c r="AR59" s="5"/>
       <c r="AS59" s="5"/>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
@@ -4979,7 +5054,7 @@
       <c r="AR60" s="5"/>
       <c r="AS60" s="5"/>
     </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
@@ -5017,7 +5092,7 @@
       <c r="AR61" s="5"/>
       <c r="AS61" s="5"/>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
@@ -5055,7 +5130,7 @@
       <c r="AR62" s="5"/>
       <c r="AS62" s="5"/>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
@@ -5093,7 +5168,7 @@
       <c r="AR63" s="5"/>
       <c r="AS63" s="5"/>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
@@ -5131,7 +5206,7 @@
       <c r="AR64" s="5"/>
       <c r="AS64" s="5"/>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
@@ -5169,7 +5244,7 @@
       <c r="AR65" s="5"/>
       <c r="AS65" s="5"/>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
@@ -5207,7 +5282,7 @@
       <c r="AR66" s="5"/>
       <c r="AS66" s="5"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
@@ -5245,7 +5320,7 @@
       <c r="AR67" s="5"/>
       <c r="AS67" s="5"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
@@ -5283,7 +5358,7 @@
       <c r="AR68" s="5"/>
       <c r="AS68" s="5"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
@@ -5321,7 +5396,7 @@
       <c r="AR69" s="5"/>
       <c r="AS69" s="5"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
@@ -5359,7 +5434,7 @@
       <c r="AR70" s="5"/>
       <c r="AS70" s="5"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
@@ -5397,7 +5472,7 @@
       <c r="AR71" s="5"/>
       <c r="AS71" s="5"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
@@ -5435,7 +5510,7 @@
       <c r="AR72" s="5"/>
       <c r="AS72" s="5"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
@@ -5473,7 +5548,7 @@
       <c r="AR73" s="5"/>
       <c r="AS73" s="5"/>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
@@ -5511,7 +5586,7 @@
       <c r="AR74" s="5"/>
       <c r="AS74" s="5"/>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
@@ -5549,7 +5624,7 @@
       <c r="AR75" s="5"/>
       <c r="AS75" s="5"/>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
@@ -5587,7 +5662,7 @@
       <c r="AR76" s="5"/>
       <c r="AS76" s="5"/>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
@@ -5625,7 +5700,7 @@
       <c r="AR77" s="5"/>
       <c r="AS77" s="5"/>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
@@ -5663,7 +5738,7 @@
       <c r="AR78" s="5"/>
       <c r="AS78" s="5"/>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
@@ -5701,7 +5776,7 @@
       <c r="AR79" s="5"/>
       <c r="AS79" s="5"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
@@ -5739,7 +5814,7 @@
       <c r="AR80" s="5"/>
       <c r="AS80" s="5"/>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
@@ -5777,7 +5852,7 @@
       <c r="AR81" s="5"/>
       <c r="AS81" s="5"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
@@ -5815,7 +5890,7 @@
       <c r="AR82" s="5"/>
       <c r="AS82" s="5"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
@@ -5853,7 +5928,7 @@
       <c r="AR83" s="5"/>
       <c r="AS83" s="5"/>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
@@ -5891,7 +5966,7 @@
       <c r="AR84" s="5"/>
       <c r="AS84" s="5"/>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
@@ -5929,7 +6004,7 @@
       <c r="AR85" s="5"/>
       <c r="AS85" s="5"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
@@ -5967,7 +6042,7 @@
       <c r="AR86" s="5"/>
       <c r="AS86" s="5"/>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
@@ -6005,7 +6080,7 @@
       <c r="AR87" s="5"/>
       <c r="AS87" s="5"/>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
@@ -6043,7 +6118,7 @@
       <c r="AR88" s="5"/>
       <c r="AS88" s="5"/>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
@@ -6081,7 +6156,7 @@
       <c r="AR89" s="5"/>
       <c r="AS89" s="5"/>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
@@ -6119,7 +6194,7 @@
       <c r="AR90" s="5"/>
       <c r="AS90" s="5"/>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
@@ -6157,7 +6232,7 @@
       <c r="AR91" s="5"/>
       <c r="AS91" s="5"/>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="7"/>
@@ -6195,7 +6270,7 @@
       <c r="AR92" s="5"/>
       <c r="AS92" s="5"/>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="7"/>
@@ -6233,7 +6308,7 @@
       <c r="AR93" s="5"/>
       <c r="AS93" s="5"/>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="7"/>
@@ -6271,7 +6346,7 @@
       <c r="AR94" s="5"/>
       <c r="AS94" s="5"/>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
@@ -6309,7 +6384,7 @@
       <c r="AR95" s="5"/>
       <c r="AS95" s="5"/>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="7"/>
@@ -6347,7 +6422,7 @@
       <c r="AR96" s="5"/>
       <c r="AS96" s="5"/>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="7"/>
@@ -6385,7 +6460,7 @@
       <c r="AR97" s="5"/>
       <c r="AS97" s="5"/>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="7"/>
@@ -6423,7 +6498,7 @@
       <c r="AR98" s="5"/>
       <c r="AS98" s="5"/>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="7"/>
@@ -6461,7 +6536,7 @@
       <c r="AR99" s="5"/>
       <c r="AS99" s="5"/>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="7"/>
@@ -6499,7 +6574,7 @@
       <c r="AR100" s="5"/>
       <c r="AS100" s="5"/>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="7"/>
@@ -6537,7 +6612,7 @@
       <c r="AR101" s="5"/>
       <c r="AS101" s="5"/>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="7"/>
@@ -6575,7 +6650,7 @@
       <c r="AR102" s="5"/>
       <c r="AS102" s="5"/>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="7"/>
@@ -6613,7 +6688,7 @@
       <c r="AR103" s="5"/>
       <c r="AS103" s="5"/>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="7"/>
@@ -6651,7 +6726,7 @@
       <c r="AR104" s="5"/>
       <c r="AS104" s="5"/>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="7"/>
@@ -6689,7 +6764,7 @@
       <c r="AR105" s="5"/>
       <c r="AS105" s="5"/>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="7"/>
@@ -6727,7 +6802,7 @@
       <c r="AR106" s="5"/>
       <c r="AS106" s="5"/>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="7"/>
@@ -6765,7 +6840,7 @@
       <c r="AR107" s="5"/>
       <c r="AS107" s="5"/>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="7"/>
@@ -6803,7 +6878,7 @@
       <c r="AR108" s="5"/>
       <c r="AS108" s="5"/>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="7"/>
@@ -6841,7 +6916,7 @@
       <c r="AR109" s="5"/>
       <c r="AS109" s="5"/>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="7"/>
@@ -6879,7 +6954,7 @@
       <c r="AR110" s="5"/>
       <c r="AS110" s="5"/>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="7"/>
@@ -6917,7 +6992,7 @@
       <c r="AR111" s="5"/>
       <c r="AS111" s="5"/>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="7"/>
@@ -6955,7 +7030,7 @@
       <c r="AR112" s="5"/>
       <c r="AS112" s="5"/>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="7"/>
@@ -6993,7 +7068,7 @@
       <c r="AR113" s="5"/>
       <c r="AS113" s="5"/>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="7"/>
@@ -7031,7 +7106,7 @@
       <c r="AR114" s="5"/>
       <c r="AS114" s="5"/>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="7"/>
@@ -7069,7 +7144,7 @@
       <c r="AR115" s="5"/>
       <c r="AS115" s="5"/>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="7"/>
@@ -7107,7 +7182,7 @@
       <c r="AR116" s="5"/>
       <c r="AS116" s="5"/>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="7"/>
@@ -7148,43 +7223,43 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="D5:D8" r:id="rId7" display="tutor_1@gmail.com"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="D10" r:id="rId10"/>
-    <hyperlink ref="D11" r:id="rId11"/>
-    <hyperlink ref="D12" r:id="rId12"/>
-    <hyperlink ref="E10" r:id="rId13"/>
-    <hyperlink ref="E11" r:id="rId14"/>
-    <hyperlink ref="E12" r:id="rId15"/>
-    <hyperlink ref="D13" r:id="rId16"/>
-    <hyperlink ref="D15" r:id="rId17"/>
-    <hyperlink ref="D17" r:id="rId18"/>
-    <hyperlink ref="D14" r:id="rId19"/>
-    <hyperlink ref="D16" r:id="rId20"/>
-    <hyperlink ref="E13" r:id="rId21"/>
-    <hyperlink ref="E15" r:id="rId22"/>
-    <hyperlink ref="E17" r:id="rId23"/>
-    <hyperlink ref="E14" r:id="rId24"/>
-    <hyperlink ref="E16" r:id="rId25"/>
-    <hyperlink ref="D19" r:id="rId26"/>
-    <hyperlink ref="D21" r:id="rId27"/>
-    <hyperlink ref="D23" r:id="rId28"/>
-    <hyperlink ref="D18" r:id="rId29"/>
-    <hyperlink ref="D20" r:id="rId30"/>
-    <hyperlink ref="D22" r:id="rId31"/>
-    <hyperlink ref="E19" r:id="rId32"/>
-    <hyperlink ref="E21" r:id="rId33"/>
-    <hyperlink ref="E23" r:id="rId34"/>
-    <hyperlink ref="E18" r:id="rId35"/>
-    <hyperlink ref="E20" r:id="rId36"/>
-    <hyperlink ref="E22" r:id="rId37"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D5:D8" r:id="rId7" display="tutor_1@gmail.com" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E12" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E13" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E15" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D19" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D23" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D22" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E21" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E20" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
@@ -7192,20 +7267,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AO112"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A83" sqref="A83:AO112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -7216,7 +7291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>77</v>
       </c>
@@ -7228,7 +7303,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
@@ -7240,7 +7315,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -7252,7 +7327,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -7264,7 +7339,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>77</v>
       </c>
@@ -7275,7 +7350,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
@@ -7286,7 +7361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>77</v>
       </c>
@@ -7297,7 +7372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>77</v>
       </c>
@@ -7308,7 +7383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>77</v>
       </c>
@@ -7319,7 +7394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
@@ -7330,7 +7405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>77</v>
       </c>
@@ -7341,7 +7416,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -7352,7 +7427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -7363,7 +7438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
@@ -7374,7 +7449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
@@ -7385,7 +7460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -7396,7 +7471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>77</v>
       </c>
@@ -7407,7 +7482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
@@ -7418,7 +7493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -7429,7 +7504,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>77</v>
       </c>
@@ -7440,7 +7515,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
@@ -7451,7 +7526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>77</v>
       </c>
@@ -7462,7 +7537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
@@ -7473,7 +7548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -7484,7 +7559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
         <v>77</v>
       </c>
@@ -7495,7 +7570,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>77</v>
       </c>
@@ -7506,7 +7581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>77</v>
       </c>
@@ -7517,7 +7592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>77</v>
       </c>
@@ -7528,7 +7603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>77</v>
       </c>
@@ -7539,7 +7614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>77</v>
       </c>
@@ -7550,7 +7625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>77</v>
       </c>
@@ -7561,7 +7636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -7572,7 +7647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -7583,7 +7658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -7594,7 +7669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -7605,7 +7680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
@@ -7616,7 +7691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -7627,7 +7702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -7638,7 +7713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -7649,7 +7724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -7660,67 +7735,67 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C45" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>77</v>
       </c>
@@ -7731,7 +7806,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>77</v>
       </c>
@@ -7742,7 +7817,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>77</v>
       </c>
@@ -7753,7 +7828,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>77</v>
       </c>
@@ -7764,7 +7839,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>77</v>
       </c>
@@ -7775,7 +7850,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>77</v>
       </c>
@@ -7786,7 +7861,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>77</v>
       </c>
@@ -7795,7 +7870,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>77</v>
       </c>
@@ -7804,7 +7879,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>77</v>
       </c>
@@ -7813,7 +7888,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>77</v>
       </c>
@@ -7822,7 +7897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>77</v>
       </c>
@@ -7831,7 +7906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>77</v>
       </c>
@@ -7840,7 +7915,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>77</v>
       </c>
@@ -7849,7 +7924,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
         <v>77</v>
       </c>
@@ -7858,10 +7933,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>77</v>
       </c>
@@ -7870,7 +7945,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>77</v>
       </c>
@@ -7879,7 +7954,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
@@ -7888,7 +7963,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>77</v>
       </c>
@@ -7899,7 +7974,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -7908,7 +7983,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
@@ -7917,7 +7992,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>77</v>
       </c>
@@ -7926,7 +8001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>18</v>
       </c>
@@ -8047,7 +8122,7 @@
       <c r="AN83" s="5"/>
       <c r="AO83" s="5"/>
     </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>18</v>
       </c>
@@ -8168,7 +8243,7 @@
       <c r="AN84" s="5"/>
       <c r="AO84" s="5"/>
     </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>18</v>
       </c>
@@ -8289,7 +8364,7 @@
       <c r="AN85" s="5"/>
       <c r="AO85" s="5"/>
     </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>18</v>
       </c>
@@ -8410,7 +8485,7 @@
       <c r="AN86" s="5"/>
       <c r="AO86" s="5"/>
     </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>18</v>
       </c>
@@ -8527,7 +8602,7 @@
       <c r="AN87" s="5"/>
       <c r="AO87" s="5"/>
     </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>18</v>
       </c>
@@ -8648,7 +8723,7 @@
       <c r="AN88" s="5"/>
       <c r="AO88" s="5"/>
     </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>18</v>
       </c>
@@ -8769,7 +8844,7 @@
       <c r="AN89" s="5"/>
       <c r="AO89" s="5"/>
     </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>18</v>
       </c>
@@ -8890,7 +8965,7 @@
       <c r="AN90" s="5"/>
       <c r="AO90" s="5"/>
     </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>18</v>
       </c>
@@ -9011,7 +9086,7 @@
       <c r="AN91" s="5"/>
       <c r="AO91" s="5"/>
     </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>18</v>
       </c>
@@ -9132,7 +9207,7 @@
       <c r="AN92" s="5"/>
       <c r="AO92" s="5"/>
     </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>18</v>
       </c>
@@ -9253,7 +9328,7 @@
       <c r="AN93" s="5"/>
       <c r="AO93" s="5"/>
     </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>18</v>
       </c>
@@ -9374,7 +9449,7 @@
       <c r="AN94" s="5"/>
       <c r="AO94" s="5"/>
     </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>18</v>
       </c>
@@ -9495,7 +9570,7 @@
       <c r="AN95" s="5"/>
       <c r="AO95" s="5"/>
     </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>18</v>
       </c>
@@ -9616,7 +9691,7 @@
       <c r="AN96" s="5"/>
       <c r="AO96" s="5"/>
     </row>
-    <row r="97" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>18</v>
       </c>
@@ -9737,7 +9812,7 @@
       <c r="AN97" s="5"/>
       <c r="AO97" s="5"/>
     </row>
-    <row r="98" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>18</v>
       </c>
@@ -9858,7 +9933,7 @@
       <c r="AN98" s="5"/>
       <c r="AO98" s="5"/>
     </row>
-    <row r="99" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>18</v>
       </c>
@@ -9979,7 +10054,7 @@
       <c r="AN99" s="5"/>
       <c r="AO99" s="5"/>
     </row>
-    <row r="100" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>18</v>
       </c>
@@ -10100,7 +10175,7 @@
       <c r="AN100" s="5"/>
       <c r="AO100" s="5"/>
     </row>
-    <row r="101" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>18</v>
       </c>
@@ -10221,7 +10296,7 @@
       <c r="AN101" s="5"/>
       <c r="AO101" s="5"/>
     </row>
-    <row r="102" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>18</v>
       </c>
@@ -10342,7 +10417,7 @@
       <c r="AN102" s="5"/>
       <c r="AO102" s="5"/>
     </row>
-    <row r="103" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>18</v>
       </c>
@@ -10461,7 +10536,7 @@
       <c r="AN103" s="5"/>
       <c r="AO103" s="5"/>
     </row>
-    <row r="104" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>18</v>
       </c>
@@ -10582,7 +10657,7 @@
       <c r="AN104" s="5"/>
       <c r="AO104" s="5"/>
     </row>
-    <row r="105" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>18</v>
       </c>
@@ -10703,7 +10778,7 @@
       <c r="AN105" s="5"/>
       <c r="AO105" s="5"/>
     </row>
-    <row r="106" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>18</v>
       </c>
@@ -10824,7 +10899,7 @@
       <c r="AN106" s="5"/>
       <c r="AO106" s="5"/>
     </row>
-    <row r="107" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>18</v>
       </c>
@@ -10945,7 +11020,7 @@
       <c r="AN107" s="5"/>
       <c r="AO107" s="5"/>
     </row>
-    <row r="108" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>18</v>
       </c>
@@ -11064,7 +11139,7 @@
       <c r="AN108" s="5"/>
       <c r="AO108" s="5"/>
     </row>
-    <row r="109" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>18</v>
       </c>
@@ -11183,7 +11258,7 @@
       <c r="AN109" s="5"/>
       <c r="AO109" s="5"/>
     </row>
-    <row r="110" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>18</v>
       </c>
@@ -11302,7 +11377,7 @@
       <c r="AN110" s="5"/>
       <c r="AO110" s="5"/>
     </row>
-    <row r="111" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>18</v>
       </c>
@@ -11421,7 +11496,7 @@
       <c r="AN111" s="5"/>
       <c r="AO111" s="5"/>
     </row>
-    <row r="112" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>18</v>
       </c>
@@ -11542,52 +11617,52 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E83" r:id="rId1"/>
-    <hyperlink ref="E84" r:id="rId2"/>
-    <hyperlink ref="E85" r:id="rId3"/>
-    <hyperlink ref="E86" r:id="rId4"/>
-    <hyperlink ref="E88" r:id="rId5"/>
-    <hyperlink ref="E89" r:id="rId6"/>
-    <hyperlink ref="E90" r:id="rId7"/>
-    <hyperlink ref="E91" r:id="rId8"/>
-    <hyperlink ref="E92" r:id="rId9"/>
-    <hyperlink ref="E93" r:id="rId10"/>
-    <hyperlink ref="E94" r:id="rId11"/>
-    <hyperlink ref="E95" r:id="rId12"/>
-    <hyperlink ref="E96" r:id="rId13"/>
-    <hyperlink ref="E97" r:id="rId14"/>
-    <hyperlink ref="E98" r:id="rId15"/>
-    <hyperlink ref="E99" r:id="rId16"/>
-    <hyperlink ref="E100" r:id="rId17"/>
-    <hyperlink ref="E101" r:id="rId18"/>
-    <hyperlink ref="E102" r:id="rId19"/>
-    <hyperlink ref="E103" r:id="rId20"/>
-    <hyperlink ref="E104" r:id="rId21"/>
-    <hyperlink ref="D104" r:id="rId22"/>
-    <hyperlink ref="E105" r:id="rId23"/>
-    <hyperlink ref="D105" r:id="rId24"/>
-    <hyperlink ref="E106" r:id="rId25"/>
-    <hyperlink ref="D106" r:id="rId26"/>
-    <hyperlink ref="E107" r:id="rId27"/>
-    <hyperlink ref="D107" r:id="rId28"/>
-    <hyperlink ref="E108" r:id="rId29"/>
-    <hyperlink ref="D108" r:id="rId30"/>
-    <hyperlink ref="E109" r:id="rId31"/>
-    <hyperlink ref="D109" r:id="rId32"/>
-    <hyperlink ref="E110" r:id="rId33"/>
-    <hyperlink ref="D110" r:id="rId34"/>
-    <hyperlink ref="E111" r:id="rId35"/>
-    <hyperlink ref="D111" r:id="rId36"/>
-    <hyperlink ref="E112" r:id="rId37"/>
-    <hyperlink ref="D112" r:id="rId38"/>
-    <hyperlink ref="D83:D86" r:id="rId39" display="tutor49@nkt.com"/>
-    <hyperlink ref="D88" r:id="rId40"/>
-    <hyperlink ref="D89:D92" r:id="rId41" display="tutor49@nkt.com"/>
-    <hyperlink ref="D93" r:id="rId42"/>
-    <hyperlink ref="D94:D97" r:id="rId43" display="tutor49@nkt.com"/>
-    <hyperlink ref="D87" r:id="rId44"/>
-    <hyperlink ref="E87" r:id="rId45"/>
-    <hyperlink ref="D98:D103" r:id="rId46" display="tutor49@nkt.com"/>
+    <hyperlink ref="E83" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E84" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E85" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E86" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E88" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E89" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E90" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E91" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="E92" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="E93" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="E94" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="E95" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E96" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="E97" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="E98" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="E99" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="E100" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="E101" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="E102" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="E103" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="E104" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D104" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="E105" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="D105" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="E106" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="D106" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="E107" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D107" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E108" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D108" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="E109" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="D109" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E110" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D110" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="E111" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="D111" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="E112" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="D112" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="D83:D86" r:id="rId39" display="tutor49@nkt.com" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D88" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="D89:D92" r:id="rId41" display="tutor49@nkt.com" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="D93" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="D94:D97" r:id="rId43" display="tutor49@nkt.com" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D87" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="E87" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="D98:D103" r:id="rId46" display="tutor49@nkt.com" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId47"/>
